--- a/data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\abutments_fired\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\abutments_fired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3823E4E2-274E-4EB8-83A1-95C0A052E80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E57B1E-0EE6-491F-BD35-49E54E1E7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
-    <t>35511Муп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
     <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
   </si>
   <si>
@@ -71,19 +68,22 @@
     <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
   </si>
   <si>
-    <t>35550 Абатмент выжигаемый LM MegaGen AnyOne с позиционером</t>
-  </si>
-  <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
     <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
   </si>
   <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
     <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
   </si>
   <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+    <t>35905уп2 Абатмент выжигаемый LM Implantium Multi-Unit 4.5 без позиционера / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
@@ -95,7 +95,10 @@
     <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
   </si>
   <si>
-    <t>35550М Абатмент выжигаемый LM MegaGen AnyOne без позиционера</t>
+    <t>35534Муп2 Абатмент выжигаемый LM Implantium без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35534уп2 Абатмент выжигаемый LM Implantium с позиционером / 2 ВИНТА, УПАК</t>
   </si>
   <si>
     <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
@@ -110,22 +113,19 @@
     <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
   </si>
   <si>
+    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
+  </si>
+  <si>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
+  </si>
+  <si>
     <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
-    <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
-  </si>
-  <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
   </si>
   <si>
     <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35542 Абатмент выжигаемый LM Niko 3.5 с позиционером</t>
   </si>
 </sst>
 </file>
@@ -604,9 +604,7 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -617,8 +615,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,7 +675,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -686,23 +683,23 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -712,47 +709,47 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -762,13 +759,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -778,26 +775,28 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
         <v>10</v>
@@ -842,15 +841,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -908,13 +905,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -940,13 +937,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -972,13 +969,13 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -988,13 +985,13 @@
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1029,20 +1026,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1061,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1081,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="18">
-        <v>296</v>
+        <v>236</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="8">
@@ -1092,7 +1089,7 @@
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="8">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\abutments_fired\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\excel_test\data\abutments_fired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E57B1E-0EE6-491F-BD35-49E54E1E7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FF5A6-7AB5-44A0-AA9C-2E697D4E9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,49 +56,40 @@
     <t>Абатмент выжигаемый</t>
   </si>
   <si>
+    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+  </si>
+  <si>
     <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
   </si>
   <si>
-    <t>35511 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером</t>
+    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
+  </si>
+  <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
   </si>
   <si>
     <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
   </si>
   <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
   </si>
   <si>
     <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
   </si>
   <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35905уп2 Абатмент выжигаемый LM Implantium Multi-Unit 4.5 без позиционера / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
-  </si>
-  <si>
-    <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
-  </si>
-  <si>
     <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
   </si>
   <si>
-    <t>35534Муп2 Абатмент выжигаемый LM Implantium без позиционера / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35534уп2 Абатмент выжигаемый LM Implantium с позиционером / 2 ВИНТА, УПАК</t>
+    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
   </si>
   <si>
     <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
@@ -116,16 +107,13 @@
     <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
   </si>
   <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
     <t>35507М Абатмент выжигаемый LM Mis SP (3.75/4.2) без позиционера</t>
   </si>
   <si>
+    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
+  </si>
+  <si>
     <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
-  </si>
-  <si>
-    <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
   </si>
 </sst>
 </file>
@@ -602,7 +590,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +600,10 @@
     <col min="2" max="2" width="1.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -675,7 +663,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -683,7 +671,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>221</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -693,13 +681,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -709,31 +697,29 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -743,42 +729,46 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
         <v>10</v>
@@ -791,12 +781,10 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
         <v>10</v>
@@ -818,7 +806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -834,20 +822,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -857,13 +845,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -889,13 +877,13 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -905,13 +893,13 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -921,13 +909,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -937,13 +925,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -953,13 +941,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -969,141 +957,69 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17">
-        <v>2</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17">
-        <v>2</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17">
         <v>1</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17">
-        <v>1</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="18">
-        <v>236</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="8">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="18">
+        <v>372</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="8">
         <v>15</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8">
-        <v>221</v>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
+  <mergeCells count="49">
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A25:C25"/>

--- a/data/abutments_fired/abutments_fired_unsh.xlsx
+++ b/data/abutments_fired/abutments_fired_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\excel_test\data\abutments_fired\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\abutments_fired\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FF5A6-7AB5-44A0-AA9C-2E697D4E9712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5004D505-2DC6-4014-A52C-D0FBE7933240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Отбор:</t>
   </si>
@@ -62,36 +62,54 @@
     <t>35534 Абатмент выжигаемый LM Implantium с позиционером</t>
   </si>
   <si>
+    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
+  </si>
+  <si>
+    <t>35510М Абатмент выжигаемый LM Osstem Implant Mini (3.5) без позиционера</t>
+  </si>
+  <si>
+    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35900 Абатмент выжигаемый LM Osstem Implant Multi-Unit без позиционера</t>
+  </si>
+  <si>
+    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35534Муп2 Абатмент выжигаемый LM Implantium без позиционера / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35534уп2 Абатмент выжигаемый LM Implantium с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
+    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
+  </si>
+  <si>
+    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
+  </si>
+  <si>
+    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35541 Абатмент выжигаемый LM Dio RP (4.5) с позиционером</t>
+  </si>
+  <si>
+    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
+  </si>
+  <si>
     <t>35507 Абатмент выжигаемый LM Mis SP (3.75/4.2) с позиционером</t>
   </si>
   <si>
-    <t>35510 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35511уп2 Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35510уп2 Абатмент выжигаемый LM Osstem Implant Mini (3.5) с позиционером / 2 ВИНТА, УПАК</t>
-  </si>
-  <si>
-    <t>35518 Абатмент выжигаемый LM Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) с позиционером</t>
-  </si>
-  <si>
-    <t>35505 Абатмент выжигаемый LM Alpha Bio Internal с позиционером</t>
-  </si>
-  <si>
     <t>35501 Абатмент выжигаемый LM Adin RS (3.5/3.75/4.2/5.0/6.0) с позиционером</t>
   </si>
   <si>
-    <t>35534М Абатмент выжигаемый LM Implantium без позиционера</t>
+    <t>35559 Абатмент выжигаемый LM Dentis Regular с позиционером</t>
   </si>
   <si>
     <t>35556 Абатмент выжигаемый LM Mis C1 (Conical) SP (3.75/4.2) с позиционером</t>
   </si>
   <si>
-    <t>35506 Абатмент выжигаемый LM Mis NP (3.3) с позиционером</t>
-  </si>
-  <si>
     <t>35560 Абатмент выжигаемый LM Nobel Multi-Unit с позиционером</t>
   </si>
   <si>
@@ -101,9 +119,6 @@
     <t>35516 Абатмент выжигаемый LM Astra Tech 3.5/4.0 с позиционером</t>
   </si>
   <si>
-    <t>35505М Абатмент выжигаемый LM Alpha Bio Internal без позиционера</t>
-  </si>
-  <si>
     <t>35562 Абатмент выжигаемый LM Alpha Bio Conical Narrow с позиционером</t>
   </si>
   <si>
@@ -111,9 +126,6 @@
   </si>
   <si>
     <t>35519 Абатмент выжигаемый LM Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) с позиционером</t>
-  </si>
-  <si>
-    <t>35511М Абатмент выжигаемый LM Osstem Implant Regular (4.0/4.5/5.0) без позиционера</t>
   </si>
 </sst>
 </file>
@@ -590,7 +602,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +612,11 @@
     <col min="2" max="2" width="1.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,7 +676,7 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
@@ -671,7 +684,7 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>357</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -681,13 +694,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -697,29 +710,29 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -729,49 +742,45 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="6">
-        <v>10</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -781,13 +790,15 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
+        <v>30</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -797,13 +808,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -813,13 +824,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -829,13 +840,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -845,29 +856,29 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -877,29 +888,31 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -909,13 +922,13 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -925,13 +938,13 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -941,13 +954,13 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -957,69 +970,141 @@
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="17"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17">
+        <v>4</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17">
+        <v>2</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17">
+        <v>2</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="E30" s="17"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="18">
-        <v>372</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="8">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="18">
+        <v>485</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8">
         <v>15</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8">
-        <v>357</v>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A25:C25"/>
